--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>表格 1</t>
   </si>
@@ -47,6 +47,15 @@
     <t>菠萝</t>
   </si>
   <si>
+    <t>Demo 21 - 25</t>
+  </si>
+  <si>
+    <t>泉州狼桑</t>
+  </si>
+  <si>
+    <t>Demo 26 - 30</t>
+  </si>
+  <si>
     <t>Field 61 - 65</t>
   </si>
 </sst>
@@ -57,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -69,13 +78,18 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +108,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -107,6 +127,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -120,7 +162,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -129,7 +171,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,43 +180,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,28 +225,73 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,50 +301,59 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -277,8 +373,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -297,10 +395,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -494,14 +592,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -516,35 +615,29 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -797,14 +890,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1093,7 +1192,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1374,11 +1473,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1396,236 +1493,246 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="s" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="C4" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="A7" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="A8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B12" s="17">
         <v>9527</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>表格 1</t>
   </si>
@@ -56,7 +56,13 @@
     <t>Demo 26 - 30</t>
   </si>
   <si>
+    <t>Demo 31- 35</t>
+  </si>
+  <si>
     <t>Field 61 - 65</t>
+  </si>
+  <si>
+    <t>62-65已收回</t>
   </si>
 </sst>
 </file>
@@ -66,11 +72,11 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="12"/>
@@ -78,12 +84,22 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -115,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -295,65 +311,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -395,10 +435,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -437,8 +477,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -507,6 +592,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -532,6 +638,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -586,21 +719,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -609,35 +789,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -890,21 +1075,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1186,13 +1364,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1473,20 +1650,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="256" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
@@ -1576,7 +1753,7 @@
       <c r="B7" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1586,27 +1763,33 @@
       <c r="A8" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="14"/>
+      <c r="A9" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1614,8 +1797,8 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1624,20 +1807,22 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
         <v>9527</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" t="s" s="20">
+        <v>16</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1645,8 +1830,8 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1654,8 +1839,8 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1663,8 +1848,8 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1672,8 +1857,8 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1681,8 +1866,8 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1690,8 +1875,8 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1699,8 +1884,8 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1708,8 +1893,8 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1717,31 +1902,22 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -62,7 +62,7 @@
     <t>Field 61 - 65</t>
   </si>
   <si>
-    <t>62-65已收回</t>
+    <t>Field 66 - 70</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1799,7 +1799,7 @@
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1812,8 +1812,8 @@
       <c r="B12" s="12">
         <v>9527</v>
       </c>
-      <c r="C12" t="s" s="20">
-        <v>16</v>
+      <c r="C12" t="s" s="9">
+        <v>5</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1821,9 +1821,13 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="14"/>
+      <c r="A13" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12">
+        <v>9527</v>
+      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>表格 1</t>
   </si>
@@ -41,6 +41,9 @@
     <t>葱烧金属史莱姆</t>
   </si>
   <si>
+    <t>13已收回</t>
+  </si>
+  <si>
     <t>Demo 16 - 20</t>
   </si>
   <si>
@@ -56,13 +59,19 @@
     <t>Demo 26 - 30</t>
   </si>
   <si>
-    <t>Demo 31- 35</t>
+    <t>Demo 31- 36</t>
   </si>
   <si>
     <t>Field 61 - 65</t>
   </si>
   <si>
     <t>Field 66 - 70</t>
+  </si>
+  <si>
+    <t>Field 87 - 88</t>
+  </si>
+  <si>
+    <t>Zero.K</t>
   </si>
 </sst>
 </file>
@@ -378,6 +387,9 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -391,9 +403,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1736,9 @@
       <c r="B5" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" t="s" s="15">
+        <v>9</v>
+      </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1735,10 +1746,10 @@
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1748,12 +1759,12 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="B7" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1761,9 +1772,9 @@
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="17">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="18">
         <v>4</v>
       </c>
       <c r="C8" t="s" s="9">
@@ -1776,20 +1787,22 @@
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" t="s" s="13">
+        <v>5</v>
+      </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1797,9 +1810,9 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1807,7 +1820,7 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="12">
         <v>9527</v>
@@ -1822,20 +1835,24 @@
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="12">
         <v>9527</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>19</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1843,8 +1860,8 @@
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1852,8 +1869,8 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1861,8 +1878,8 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1870,8 +1887,8 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1879,8 +1896,8 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -1888,8 +1905,8 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1897,8 +1914,8 @@
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1906,8 +1923,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>表格 1</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Demo 31- 36</t>
+  </si>
+  <si>
+    <t>Field 1 - 50</t>
+  </si>
+  <si>
+    <t>小智分配</t>
+  </si>
+  <si>
+    <t>Field 51 - 55</t>
   </si>
   <si>
     <t>Field 61 - 65</t>
@@ -1659,7 +1668,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1810,9 +1819,13 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17"/>
+      <c r="A11" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1820,14 +1833,12 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12">
-        <v>9527</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1835,12 +1846,14 @@
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="12">
         <v>9527</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1848,20 +1861,24 @@
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>9527</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>22</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1930,6 +1947,15 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>表格 1</t>
   </si>
@@ -74,13 +74,19 @@
     <t>Field 61 - 65</t>
   </si>
   <si>
+    <t>已整理翻译位置</t>
+  </si>
+  <si>
     <t>Field 66 - 70</t>
   </si>
   <si>
+    <t>Field 85 - 86</t>
+  </si>
+  <si>
+    <t>Zero.K</t>
+  </si>
+  <si>
     <t>Field 87 - 88</t>
-  </si>
-  <si>
-    <t>Zero.K</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -372,6 +378,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -412,6 +421,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1680,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1705,257 +1717,276 @@
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="B4" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B8" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C9" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="16">
+      <c r="B11" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>9527</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13">
+        <v>9527</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="B14" s="12">
-        <v>9527</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>表格 1</t>
   </si>
@@ -41,7 +41,7 @@
     <t>葱烧金属史莱姆</t>
   </si>
   <si>
-    <t>13已收回</t>
+    <t>13/14已收回</t>
   </si>
   <si>
     <t>Demo 16 - 20</t>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Field 51 - 55</t>
+  </si>
+  <si>
+    <t>Field 56 - 60</t>
   </si>
   <si>
     <t>Field 61 - 65</t>
@@ -356,7 +359,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -378,9 +381,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -423,7 +423,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1680,7 +1680,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1717,276 +1717,291 @@
         <v>2</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="A4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="14">
+      <c r="C4" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="A5" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="16">
+      <c r="C5" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="A6" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="A7" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="17">
+      <c r="B7" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="A8" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="19">
+      <c r="B8" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="17">
+      <c r="B11" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="C12" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
         <v>9527</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C14" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D13" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="B14" s="13">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B15" s="12">
         <v>9527</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="13">
+      <c r="C15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="12">
+      <c r="B16" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s" s="16">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="D17" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -41,9 +41,6 @@
     <t>葱烧金属史莱姆</t>
   </si>
   <si>
-    <t>13/14已收回</t>
-  </si>
-  <si>
     <t>Demo 16 - 20</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Field 66 - 70</t>
+  </si>
+  <si>
+    <t>Field 83 - 84</t>
   </si>
   <si>
     <t>Field 85 - 86</t>
@@ -359,7 +359,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -423,7 +423,13 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1680,7 +1686,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1758,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s" s="15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1767,10 +1773,10 @@
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="12">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="12">
-        <v>11</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1780,10 +1786,10 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="16">
         <v>12</v>
-      </c>
-      <c r="B7" t="s" s="16">
-        <v>13</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="14"/>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="18">
         <v>4</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="8">
         <v>4</v>
@@ -1832,10 +1838,10 @@
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="16">
         <v>16</v>
-      </c>
-      <c r="B11" t="s" s="16">
-        <v>17</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="14"/>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="18">
         <v>4</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s" s="8">
         <v>4</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12">
         <v>9527</v>
@@ -1882,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="12">
         <v>9527</v>
@@ -1902,12 +1908,8 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>24</v>
-      </c>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1916,24 +1918,24 @@
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s" s="15">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>24</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1941,10 +1943,18 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s" s="15">
+        <v>20</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -2002,6 +2012,24 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>表格 1</t>
   </si>
@@ -47,12 +47,15 @@
     <t>菠萝</t>
   </si>
   <si>
-    <t>Demo 21 - 25</t>
+    <t>Demo 21 - 23</t>
   </si>
   <si>
     <t>泉州狼桑</t>
   </si>
   <si>
+    <t>Demo 24 - 25</t>
+  </si>
+  <si>
     <t>Demo 26 - 30</t>
   </si>
   <si>
@@ -80,7 +83,13 @@
     <t>Field 66 - 70</t>
   </si>
   <si>
+    <t>Filed 71 - 82</t>
+  </si>
+  <si>
     <t>Field 83 - 84</t>
+  </si>
+  <si>
+    <t>83已收回</t>
   </si>
   <si>
     <t>Field 85 - 86</t>
@@ -359,7 +368,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -408,10 +417,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -424,12 +436,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,7 +1692,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1778,7 +1784,7 @@
       <c r="B6" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1788,10 +1794,10 @@
       <c r="A7" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="16">
+      <c r="B7" t="s" s="17">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1801,12 +1807,10 @@
       <c r="A8" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B8" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="9">
-        <v>5</v>
-      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1816,10 +1820,10 @@
       <c r="A9" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C9" t="s" s="9">
         <v>5</v>
       </c>
       <c r="D9" s="14"/>
@@ -1828,22 +1832,24 @@
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
+      <c r="A10" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="13">
+        <v>5</v>
+      </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1851,14 +1857,12 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="B12" t="s" s="18">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s" s="9">
-        <v>5</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1868,10 +1872,12 @@
       <c r="A13" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1881,36 +1887,40 @@
       <c r="A14" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B14" s="12">
-        <v>9527</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="15">
-        <v>20</v>
-      </c>
+      <c r="B14" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12">
         <v>9527</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
+      <c r="C15" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="15">
+        <v>21</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="14"/>
+      <c r="A16" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17">
+        <v>9527</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1918,10 +1928,10 @@
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s" s="12">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>4</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1931,12 +1941,14 @@
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="15">
+        <v>25</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1944,33 +1956,37 @@
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s" s="15">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s" s="15">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="15">
+        <v>21</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1978,8 +1994,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1987,8 +2003,8 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1996,8 +2012,8 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -2005,8 +2021,8 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2014,8 +2030,8 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -2023,13 +2039,22 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,11 +118,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -368,14 +363,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -384,58 +379,64 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,10 +478,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -519,53 +520,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -634,27 +590,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -680,33 +615,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -761,68 +669,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -831,40 +692,35 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1117,14 +973,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1406,12 +1269,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1797,7 +1661,9 @@
       <c r="B7" t="s" s="17">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1807,10 +1673,10 @@
       <c r="A8" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="19">
+      <c r="B8" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1820,7 +1686,7 @@
       <c r="A9" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="19">
+      <c r="B9" t="s" s="18">
         <v>4</v>
       </c>
       <c r="C9" t="s" s="9">
@@ -1872,7 +1738,7 @@
       <c r="A13" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B13" t="s" s="19">
+      <c r="B13" t="s" s="18">
         <v>4</v>
       </c>
       <c r="C13" t="s" s="9">
@@ -1900,7 +1766,7 @@
       <c r="A15" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
@@ -1917,7 +1783,7 @@
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="24">
         <v>9527</v>
       </c>
       <c r="C16" s="10"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -363,7 +363,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -428,9 +428,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1756,7 +1753,9 @@
       <c r="B14" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1766,7 +1765,7 @@
       <c r="A15" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
@@ -1783,7 +1782,7 @@
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>9527</v>
       </c>
       <c r="C16" s="10"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -363,7 +363,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -434,6 +434,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1814,7 @@
       <c r="B18" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C18" t="s" s="15">
+      <c r="C18" t="s" s="24">
         <v>25</v>
       </c>
       <c r="D18" s="14"/>
@@ -1826,7 +1829,9 @@
       <c r="B19" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1839,7 +1844,7 @@
       <c r="B20" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="C20" t="s" s="15">
+      <c r="C20" t="s" s="13">
         <v>5</v>
       </c>
       <c r="D20" t="s" s="15">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -68,6 +68,9 @@
     <t>小智分配</t>
   </si>
   <si>
+    <t>1-10已收回</t>
+  </si>
+  <si>
     <t>Field 51 - 55</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>Field 83 - 84</t>
-  </si>
-  <si>
-    <t>83已收回</t>
   </si>
   <si>
     <t>Field 85 - 86</t>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,6 +118,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -363,14 +368,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -379,64 +384,58 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +477,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -520,8 +519,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -590,6 +634,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -615,6 +680,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -669,21 +761,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -692,35 +831,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -973,21 +1117,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1269,13 +1406,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1728,7 +1864,9 @@
       <c r="B12" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" t="s" s="22">
+        <v>18</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1736,7 +1874,7 @@
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="18">
         <v>4</v>
@@ -1751,7 +1889,7 @@
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s" s="8">
         <v>4</v>
@@ -1766,16 +1904,16 @@
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B15" s="22">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>5</v>
       </c>
       <c r="D15" t="s" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1783,9 +1921,9 @@
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B16" s="23">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17">
         <v>9527</v>
       </c>
       <c r="C16" s="10"/>
@@ -1796,7 +1934,7 @@
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s" s="8">
         <v>4</v>
@@ -1809,13 +1947,13 @@
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C18" t="s" s="24">
-        <v>25</v>
+      <c r="C18" t="s" s="22">
+        <v>5</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1848,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,11 +118,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -368,14 +363,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -384,58 +379,64 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,10 +478,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -519,53 +520,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -634,27 +590,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -680,33 +615,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -761,68 +669,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -831,40 +692,35 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1117,14 +973,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1406,12 +1269,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1906,7 +1770,7 @@
       <c r="A15" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
@@ -1923,7 +1787,7 @@
       <c r="A16" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="24">
         <v>9527</v>
       </c>
       <c r="C16" s="10"/>
@@ -1939,7 +1803,9 @@
       <c r="B17" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" t="s" s="22">
+        <v>5</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1952,7 +1818,7 @@
       <c r="B18" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="C18" t="s" s="22">
+      <c r="C18" t="s" s="9">
         <v>5</v>
       </c>
       <c r="D18" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -44,9 +44,6 @@
     <t>Demo 16 - 20</t>
   </si>
   <si>
-    <t>菠萝</t>
-  </si>
-  <si>
     <t>Demo 21 - 23</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Field 66 - 70</t>
+  </si>
+  <si>
+    <t>66/68/69已收回</t>
   </si>
   <si>
     <t>Filed 71 - 82</t>
@@ -363,7 +363,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -409,31 +409,25 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1646,9 +1640,11 @@
         <v>9</v>
       </c>
       <c r="B6" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -1656,10 +1652,10 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="16">
         <v>11</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>12</v>
       </c>
       <c r="C7" t="s" s="9">
         <v>5</v>
@@ -1671,12 +1667,14 @@
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" t="s" s="9">
+        <v>5</v>
+      </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1684,9 +1682,9 @@
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="17">
         <v>4</v>
       </c>
       <c r="C9" t="s" s="9">
@@ -1699,7 +1697,7 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="8">
         <v>4</v>
@@ -1713,8 +1711,8 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1723,13 +1721,13 @@
     </row>
     <row r="12" ht="20.35" customHeight="1">
       <c r="A12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="17">
+      <c r="C12" t="s" s="15">
         <v>17</v>
-      </c>
-      <c r="C12" t="s" s="22">
-        <v>18</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1738,9 +1736,9 @@
     </row>
     <row r="13" ht="20.35" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s" s="17">
         <v>4</v>
       </c>
       <c r="C13" t="s" s="9">
@@ -1753,7 +1751,7 @@
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s" s="8">
         <v>4</v>
@@ -1768,16 +1766,16 @@
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B15" s="23">
+        <v>20</v>
+      </c>
+      <c r="B15" s="20">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D15" t="s" s="15">
-        <v>22</v>
+      <c r="D15" t="s" s="21">
+        <v>21</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1785,12 +1783,14 @@
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B16" s="22">
+        <v>9527</v>
+      </c>
+      <c r="C16" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B16" s="24">
-        <v>9527</v>
-      </c>
-      <c r="C16" s="10"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1803,7 +1803,7 @@
       <c r="B17" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C17" t="s" s="22">
+      <c r="C17" t="s" s="15">
         <v>5</v>
       </c>
       <c r="D17" s="14"/>
@@ -1851,16 +1851,16 @@
       <c r="C20" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="15">
-        <v>22</v>
+      <c r="D20" t="s" s="21">
+        <v>21</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1868,8 +1868,8 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1877,8 +1877,8 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1886,8 +1886,8 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1895,8 +1895,8 @@
       <c r="G24" s="14"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1904,8 +1904,8 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -1913,8 +1913,8 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -1922,8 +1922,8 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -65,7 +65,7 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>1-10已收回</t>
+    <t>5-14已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,6 +118,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -363,14 +368,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -379,58 +384,52 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +471,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -514,8 +513,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -584,6 +628,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -609,6 +674,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -663,21 +755,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -686,35 +825,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -967,21 +1111,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1263,13 +1400,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1768,13 +1904,13 @@
       <c r="A15" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="12">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D15" t="s" s="21">
+      <c r="D15" t="s" s="20">
         <v>21</v>
       </c>
       <c r="E15" s="14"/>
@@ -1785,7 +1921,7 @@
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="16">
         <v>9527</v>
       </c>
       <c r="C16" t="s" s="13">
@@ -1851,7 +1987,7 @@
       <c r="C20" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="21">
+      <c r="D20" t="s" s="20">
         <v>21</v>
       </c>
       <c r="E20" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -83,7 +83,7 @@
     <t>Field 66 - 70</t>
   </si>
   <si>
-    <t>66/68/69已收回</t>
+    <t>66/68/69/70已收回</t>
   </si>
   <si>
     <t>Filed 71 - 82</t>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -118,11 +118,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -368,14 +363,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -384,52 +379,58 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,10 +472,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -513,53 +514,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -628,27 +584,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -674,33 +609,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -755,68 +663,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -825,40 +686,35 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1111,14 +967,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1400,12 +1263,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1904,13 +1768,13 @@
       <c r="A15" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="20">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D15" t="s" s="20">
+      <c r="D15" t="s" s="21">
         <v>21</v>
       </c>
       <c r="E15" s="14"/>
@@ -1921,7 +1785,7 @@
       <c r="A16" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="22">
         <v>9527</v>
       </c>
       <c r="C16" t="s" s="13">
@@ -1987,7 +1851,7 @@
       <c r="C20" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D20" t="s" s="20">
+      <c r="D20" t="s" s="21">
         <v>21</v>
       </c>
       <c r="E20" s="14"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>表格 1</t>
   </si>
@@ -20,7 +20,13 @@
     <t>翻译</t>
   </si>
   <si>
-    <t>润色</t>
+    <t>初整理</t>
+  </si>
+  <si>
+    <t>第一轮润色</t>
+  </si>
+  <si>
+    <t>第二轮润色</t>
   </si>
   <si>
     <t>Demo 1 - 5</t>
@@ -32,9 +38,21 @@
     <t>翻译已收回</t>
   </si>
   <si>
+    <t>艾美迪</t>
+  </si>
+  <si>
+    <t>润色已收回</t>
+  </si>
+  <si>
+    <t>六祈</t>
+  </si>
+  <si>
     <t>Demo 6 - 10</t>
   </si>
   <si>
+    <t>6 - 8已收回</t>
+  </si>
+  <si>
     <t>Demo 11 - 15</t>
   </si>
   <si>
@@ -65,7 +83,7 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>5-14已收回</t>
+    <t>5 - 14已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -81,9 +99,6 @@
   </si>
   <si>
     <t>Field 66 - 70</t>
-  </si>
-  <si>
-    <t>66/68/69/70已收回</t>
   </si>
   <si>
     <t>Filed 71 - 82</t>
@@ -363,7 +378,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -376,6 +391,12 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,7 +415,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -403,21 +424,24 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -427,7 +451,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1550,7 +1574,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1563,7 +1587,8 @@
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="256" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
@@ -1572,367 +1597,435 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" t="s" s="6">
+      <c r="C2" s="7"/>
+      <c r="D2" t="s" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" t="s" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="9">
+      <c r="A3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="13">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s" s="15">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="12">
+      <c r="D5" s="15"/>
+      <c r="E5" t="s" s="15">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="15">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s" s="16">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="B15" s="23">
+        <v>9527</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B16" s="25">
+        <v>9527</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B15" s="20">
-        <v>9527</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B16" s="22">
-        <v>9527</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s" s="12">
+      <c r="A19" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C19" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s" s="21">
-        <v>21</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>表格 1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Demo 6 - 10</t>
   </si>
   <si>
-    <t>6 - 8已收回</t>
-  </si>
-  <si>
     <t>Demo 11 - 15</t>
   </si>
   <si>
@@ -83,7 +80,7 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>5 - 14已收回</t>
+    <t>5 - 14，26-35，36，37已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -123,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -133,6 +130,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -378,83 +380,80 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,10 +495,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -538,8 +537,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -608,6 +652,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -633,6 +698,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -687,21 +779,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -710,35 +849,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -991,21 +1135,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1287,13 +1424,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1597,431 +1733,439 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s" s="8">
+      <c r="C2" s="6"/>
+      <c r="D2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="8">
+      <c r="E2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" t="s" s="8">
+      <c r="F2" s="6"/>
+      <c r="G2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" t="s" s="12">
+      <c r="D3" s="11"/>
+      <c r="E3" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="13">
+      <c r="A4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" t="s" s="15">
+      <c r="D4" s="14"/>
+      <c r="E4" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="15">
+      <c r="F4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G4" t="s" s="15">
+      <c r="G4" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="H4" t="s" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="22.35" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B5" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="C5" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="22.35" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="16">
+      <c r="B6" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" t="s" s="15">
+      <c r="D6" s="14"/>
+      <c r="E6" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="15">
+      <c r="F6" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="13">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B7" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C8" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" t="s" s="15">
+      <c r="D8" s="14"/>
+      <c r="E8" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F8" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="11">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" t="s" s="15">
+      <c r="D9" s="14"/>
+      <c r="E9" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="F7" t="s" s="15">
+      <c r="F9" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="19">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C10" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s" s="15">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="81.5" customHeight="1">
+      <c r="A12" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B15" s="13">
+        <v>9527</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s" s="19">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="B16" s="17">
+        <v>9527</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="F16" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="12">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s" s="16">
-        <v>23</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="11">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="11">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="13">
+      <c r="D20" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="B15" s="23">
-        <v>9527</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="B16" s="25">
-        <v>9527</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s" s="15">
-        <v>27</v>
-      </c>
       <c r="E20" s="24"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -80,7 +80,7 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>5 - 14，26-35，36，37已收回</t>
+    <t>5 - 37已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -130,11 +130,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -380,80 +375,92 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,10 +502,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -537,53 +544,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -652,27 +614,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -698,33 +639,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -779,68 +693,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -849,40 +716,35 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1135,14 +997,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1424,12 +1293,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1768,13 +1638,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" t="s" s="11">
+      <c r="E3" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="11">
+      <c r="G3" t="s" s="12">
         <v>10</v>
       </c>
       <c r="H3" t="s" s="10">
@@ -1782,189 +1652,189 @@
       </c>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="A4" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" t="s" s="14">
+      <c r="D4" s="15"/>
+      <c r="E4" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="G4" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" t="s" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="A5" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" t="s" s="14">
+      <c r="D5" s="15"/>
+      <c r="E5" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="12">
+      <c r="A6" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="13">
+      <c r="B6" t="s" s="14">
         <v>6</v>
       </c>
       <c r="C6" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" t="s" s="14">
+      <c r="D6" s="15"/>
+      <c r="E6" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="12">
+      <c r="A7" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="17">
+      <c r="B7" t="s" s="19">
         <v>16</v>
       </c>
       <c r="C7" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" t="s" s="14">
+      <c r="D7" s="15"/>
+      <c r="E7" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="F7" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="12">
+      <c r="A8" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B8" t="s" s="20">
         <v>6</v>
       </c>
       <c r="C8" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" t="s" s="14">
+      <c r="D8" s="15"/>
+      <c r="E8" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="F8" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B9" t="s" s="20">
         <v>6</v>
       </c>
       <c r="C9" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" t="s" s="14">
+      <c r="D9" s="15"/>
+      <c r="E9" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="F9" t="s" s="14">
+      <c r="F9" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="13">
         <v>19</v>
       </c>
       <c r="B10" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" ht="81.5" customHeight="1">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="17">
+      <c r="B12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" t="s" s="17">
         <v>22</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" t="s" s="20">
         <v>6</v>
       </c>
       <c r="C13" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="12">
+      <c r="A14" t="s" s="13">
         <v>24</v>
       </c>
       <c r="B14" t="s" s="9">
@@ -1973,56 +1843,56 @@
       <c r="C14" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="12">
+      <c r="A15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="24">
         <v>9527</v>
       </c>
       <c r="C15" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="22">
+      <c r="D15" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="E15" t="s" s="18">
+      <c r="E15" t="s" s="20">
         <v>6</v>
       </c>
-      <c r="F15" t="s" s="14">
+      <c r="F15" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="26">
         <v>9527</v>
       </c>
       <c r="C16" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="27"/>
       <c r="E16" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F16" t="s" s="14">
+      <c r="F16" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="13">
         <v>28</v>
       </c>
       <c r="B17" t="s" s="9">
@@ -2031,141 +1901,141 @@
       <c r="C17" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B18" t="s" s="13">
+      <c r="B18" t="s" s="14">
         <v>13</v>
       </c>
       <c r="C18" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="12">
+      <c r="A19" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" t="s" s="14">
         <v>31</v>
       </c>
       <c r="C19" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="C20" t="s" s="11">
+      <c r="C20" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="14">
+      <c r="D20" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -80,7 +80,7 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>5 - 37已收回</t>
+    <t>5 - 38， 46-50已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>表格 1</t>
   </si>
@@ -74,13 +74,16 @@
     <t>Demo 31- 36</t>
   </si>
   <si>
+    <t>33 骑士</t>
+  </si>
+  <si>
+    <t>47 骑士</t>
+  </si>
+  <si>
     <t>Field 1 - 50</t>
   </si>
   <si>
     <t>小智分配</t>
-  </si>
-  <si>
-    <t>5 - 38， 46-50已收回</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -120,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -130,6 +133,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -375,92 +383,86 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,10 +504,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -544,8 +546,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -614,6 +661,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -639,6 +707,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -693,21 +788,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -716,35 +858,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -997,21 +1144,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1293,13 +1433,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1580,7 +1719,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1692,8 +1831,8 @@
       <c r="F5" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="13">
@@ -1712,14 +1851,14 @@
       <c r="F6" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="A7" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="B7" t="s" s="18">
         <v>16</v>
       </c>
       <c r="C7" t="s" s="10">
@@ -1732,14 +1871,14 @@
       <c r="F7" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="A8" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="20">
+      <c r="B8" t="s" s="19">
         <v>6</v>
       </c>
       <c r="C8" t="s" s="10">
@@ -1752,14 +1891,14 @@
       <c r="F8" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
       <c r="A9" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="B9" t="s" s="20">
+      <c r="B9" t="s" s="19">
         <v>6</v>
       </c>
       <c r="C9" t="s" s="10">
@@ -1772,8 +1911,8 @@
       <c r="F9" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="A10" t="s" s="13">
@@ -1785,257 +1924,283 @@
       <c r="C10" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" ht="81.5" customHeight="1">
-      <c r="A12" t="s" s="13">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="19">
+      <c r="F11" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="C12" t="s" s="17">
+      <c r="F12" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="81.5" customHeight="1">
+      <c r="A13" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="13">
+      <c r="B13" t="s" s="18">
         <v>23</v>
-      </c>
-      <c r="B13" t="s" s="20">
-        <v>6</v>
       </c>
       <c r="C13" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
       <c r="A14" t="s" s="13">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" t="s" s="19">
         <v>6</v>
       </c>
       <c r="C14" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B15" s="24">
-        <v>9527</v>
+      <c r="B15" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C15" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="25">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s" s="20">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B16" s="26">
+        <v>26</v>
+      </c>
+      <c r="B16" s="14">
         <v>9527</v>
       </c>
       <c r="C16" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" t="s" s="9">
+      <c r="D16" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="19">
         <v>6</v>
       </c>
       <c r="F16" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="9">
-        <v>6</v>
+      <c r="B17" s="18">
+        <v>9527</v>
       </c>
       <c r="C17" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="D17" s="25"/>
+      <c r="E17" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B18" t="s" s="14">
-        <v>13</v>
+      <c r="B18" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C18" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="13">
         <v>30</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="14">
         <v>32</v>
       </c>
-      <c r="B20" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>表格 1</t>
   </si>
@@ -77,13 +77,16 @@
     <t>33 骑士</t>
   </si>
   <si>
+    <t>31-32 34-36 骑士</t>
+  </si>
+  <si>
+    <t>Field 1 - 50</t>
+  </si>
+  <si>
+    <t>小智分配</t>
+  </si>
+  <si>
     <t>47 骑士</t>
-  </si>
-  <si>
-    <t>Field 1 - 50</t>
-  </si>
-  <si>
-    <t>小智分配</t>
   </si>
   <si>
     <t>Field 51 - 55</t>
@@ -383,7 +386,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -447,13 +450,22 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1719,7 +1731,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1925,10 +1937,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
       <c r="A11" s="22"/>
@@ -1944,7 +1956,7 @@
       <c r="G11" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1959,57 +1971,55 @@
       <c r="F12" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G12" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s" s="16">
-        <v>9</v>
-      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" ht="81.5" customHeight="1">
       <c r="A13" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="C13" t="s" s="10">
+      <c r="C13" t="s" s="12">
         <v>7</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="13">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="15"/>
+      <c r="E14" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s" s="16">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" ht="20.35" customHeight="1">
       <c r="A15" t="s" s="13">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" t="s" s="19">
         <v>6</v>
       </c>
       <c r="C15" t="s" s="10">
         <v>7</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2018,36 +2028,32 @@
       <c r="A16" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="B16" s="14">
-        <v>9527</v>
+      <c r="B16" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C16" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D16" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s" s="16">
-        <v>9</v>
-      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="B17" s="18">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14">
         <v>9527</v>
       </c>
       <c r="C17" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" t="s" s="9">
+      <c r="D17" t="s" s="27">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s" s="19">
         <v>6</v>
       </c>
       <c r="F17" t="s" s="16">
@@ -2060,15 +2066,19 @@
       <c r="A18" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B18" t="s" s="9">
-        <v>6</v>
+      <c r="B18" s="18">
+        <v>9527</v>
       </c>
       <c r="C18" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="28"/>
+      <c r="E18" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s" s="16">
+        <v>9</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
@@ -2076,8 +2086,8 @@
       <c r="A19" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="B19" t="s" s="14">
-        <v>13</v>
+      <c r="B19" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C19" t="s" s="10">
         <v>7</v>
@@ -2093,7 +2103,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s" s="10">
         <v>7</v>
@@ -2106,28 +2116,34 @@
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="B21" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s" s="12">
+      <c r="C21" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="16">
-        <v>27</v>
-      </c>
-      <c r="E21" s="26"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="E22" s="29"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2201,6 +2217,16 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>表格 1</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>小智分配</t>
+  </si>
+  <si>
+    <t>19-35 46-50折篁忆文</t>
+  </si>
+  <si>
+    <t>1-18 折篁忆文</t>
+  </si>
+  <si>
+    <t>重翻已收回</t>
+  </si>
+  <si>
+    <t>41-45 Zero.K</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>36-40 Zero.K</t>
   </si>
   <si>
     <t>47 骑士</t>
@@ -126,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -136,11 +154,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -386,95 +399,101 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,10 +535,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -558,53 +577,8 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Blank">
       <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="129999"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -673,27 +647,6 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -719,33 +672,6 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -800,68 +726,21 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -870,40 +749,35 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1156,14 +1030,21 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1445,12 +1326,13 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1731,7 +1613,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1981,110 +1863,96 @@
       <c r="B13" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="10">
         <v>7</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="E13" t="s" s="16">
+        <v>24</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="20"/>
+    <row r="14" ht="81.5" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="15"/>
       <c r="E14" t="s" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s" s="16">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" ht="81.5" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s" s="16">
+        <v>28</v>
+      </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>7</v>
-      </c>
+    <row r="16" ht="81.5" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="B17" s="14">
-        <v>9527</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s" s="27">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s" s="19">
-        <v>6</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="15"/>
+      <c r="E17" t="s" s="16">
+        <v>30</v>
       </c>
       <c r="F17" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s" s="16">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="B18" s="18">
-        <v>9527</v>
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="19">
+        <v>6</v>
       </c>
       <c r="C18" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s" s="16">
-        <v>9</v>
-      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="9">
         <v>6</v>
@@ -2093,65 +1961,79 @@
         <v>7</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s" s="14">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="27">
+        <v>9527</v>
       </c>
       <c r="C20" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="D20" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="19">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s" s="16">
+        <v>9</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s" s="14">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="29">
+        <v>9527</v>
       </c>
       <c r="C21" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="30"/>
+      <c r="E21" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s" s="16">
+        <v>9</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D22" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="E22" s="29"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="15"/>
+      <c r="A23" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2159,9 +2041,15 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="15"/>
+      <c r="A24" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>7</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2169,11 +2057,19 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="E25" s="31"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2227,6 +2123,36 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>表格 1</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>重翻已收回</t>
+  </si>
+  <si>
+    <t>1-5 骑士</t>
   </si>
   <si>
     <t>41-45 Zero.K</t>
@@ -1613,7 +1616,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1893,75 +1896,73 @@
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="15"/>
-      <c r="E15" t="s" s="16">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" t="s" s="16">
         <v>27</v>
-      </c>
-      <c r="F15" t="s" s="16">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s" s="16">
-        <v>28</v>
       </c>
       <c r="H15" s="15"/>
     </row>
     <row r="16" ht="81.5" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="15"/>
       <c r="E16" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="20"/>
+      <c r="H16" t="s" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="81.5" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="15"/>
       <c r="E17" t="s" s="16">
         <v>30</v>
       </c>
-      <c r="F17" t="s" s="16">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G17" t="s" s="16">
+      <c r="G18" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="H17" t="s" s="16">
+      <c r="H18" t="s" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
       <c r="A19" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" t="s" s="19">
         <v>6</v>
       </c>
       <c r="C19" t="s" s="10">
         <v>7</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1970,36 +1971,32 @@
       <c r="A20" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="B20" s="27">
-        <v>9527</v>
+      <c r="B20" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C20" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="28">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s" s="19">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s" s="16">
-        <v>9</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="B21" s="29">
+        <v>34</v>
+      </c>
+      <c r="B21" s="27">
         <v>9527</v>
       </c>
       <c r="C21" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" t="s" s="9">
+      <c r="D21" t="s" s="28">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s" s="19">
         <v>6</v>
       </c>
       <c r="F21" t="s" s="16">
@@ -2012,15 +2009,19 @@
       <c r="A22" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B22" t="s" s="9">
-        <v>6</v>
+      <c r="B22" s="29">
+        <v>9527</v>
       </c>
       <c r="C22" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="D22" s="30"/>
+      <c r="E22" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s" s="16">
+        <v>9</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
@@ -2028,8 +2029,8 @@
       <c r="A23" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="B23" t="s" s="14">
-        <v>13</v>
+      <c r="B23" t="s" s="9">
+        <v>6</v>
       </c>
       <c r="C23" t="s" s="10">
         <v>7</v>
@@ -2045,7 +2046,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s" s="10">
         <v>7</v>
@@ -2058,28 +2059,34 @@
     </row>
     <row r="25" ht="20.35" customHeight="1">
       <c r="A25" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s" s="14">
         <v>40</v>
       </c>
-      <c r="B25" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D25" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="E25" s="31"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="E26" s="31"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -2153,6 +2160,16 @@
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/games/dqm2/translation-progress.xlsx
+++ b/games/dqm2/translation-progress.xlsx
@@ -86,16 +86,16 @@
     <t>小智分配</t>
   </si>
   <si>
-    <t>19-35 46-50折篁忆文</t>
-  </si>
-  <si>
-    <t>1-18 折篁忆文</t>
+    <t>1-35 折篁忆文</t>
   </si>
   <si>
     <t>重翻已收回</t>
   </si>
   <si>
     <t>1-5 骑士</t>
+  </si>
+  <si>
+    <t>46-50折篁忆文</t>
   </si>
   <si>
     <t>41-45 Zero.K</t>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -157,6 +157,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="15"/>
@@ -402,101 +407,89 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,10 +531,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -580,8 +573,53 @@
         <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -650,6 +688,27 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
@@ -675,6 +734,33 @@
             <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -729,21 +815,68 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -752,35 +885,40 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -1033,21 +1171,14 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="6350" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="50000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
+        <a:effectLst/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1329,13 +1460,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1856,8 +1986,8 @@
       <c r="F12" t="s" s="16">
         <v>9</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="81.5" customHeight="1">
       <c r="A13" t="s" s="13">
@@ -1873,7 +2003,9 @@
       <c r="E13" t="s" s="16">
         <v>24</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" t="s" s="16">
+        <v>25</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
@@ -1882,13 +2014,11 @@
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="15"/>
-      <c r="E14" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s" s="16">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" t="s" s="16">
         <v>26</v>
       </c>
-      <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" ht="81.5" customHeight="1">
@@ -1896,11 +2026,11 @@
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" t="s" s="16">
+      <c r="E15" t="s" s="16">
         <v>27</v>
       </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" ht="81.5" customHeight="1">
@@ -1912,7 +2042,7 @@
         <v>28</v>
       </c>
       <c r="F16" t="s" s="16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s" s="16">
         <v>29</v>
@@ -1935,7 +2065,7 @@
     </row>
     <row r="18" ht="20.35" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="20"/>
       <c r="D18" s="15"/>
       <c r="E18" t="s" s="16">
@@ -1987,13 +2117,13 @@
       <c r="A21" t="s" s="13">
         <v>34</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="14">
         <v>9527</v>
       </c>
       <c r="C21" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="28">
+      <c r="D21" t="s" s="25">
         <v>35</v>
       </c>
       <c r="E21" t="s" s="19">
@@ -2009,13 +2139,13 @@
       <c r="A22" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="18">
         <v>9527</v>
       </c>
       <c r="C22" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="26"/>
       <c r="E22" t="s" s="9">
         <v>6</v>
       </c>
@@ -2086,7 +2216,7 @@
       <c r="D26" t="s" s="16">
         <v>35</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
